--- a/data/stainless_steel_304_clusters.xlsx
+++ b/data/stainless_steel_304_clusters.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cluster Information" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/data/stainless_steel_304_clusters.xlsx
+++ b/data/stainless_steel_304_clusters.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cluster Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cluster Information" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +497,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>312.2202453613281</v>
+        <v>693.3890380859375</v>
       </c>
       <c r="D3" t="n">
-        <v>6.933036327362061</v>
+        <v>37.75030136108398</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +513,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>463.4491577148438</v>
+        <v>312.2202453613281</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31888771057129</v>
+        <v>6.933036327362061</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +529,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C5" t="n">
-        <v>693.3890380859375</v>
+        <v>853.4757690429688</v>
       </c>
       <c r="D5" t="n">
-        <v>37.75030136108398</v>
+        <v>35.73348617553711</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +545,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>853.4757690429688</v>
+        <v>463.4491577148438</v>
       </c>
       <c r="D6" t="n">
-        <v>35.73348617553711</v>
+        <v>10.31888771057129</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +621,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003245791420340538</v>
+        <v>0.006826737429946661</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008396035409532487</v>
+        <v>0.0007759563741274178</v>
       </c>
     </row>
     <row r="13">
@@ -618,13 +637,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006826737429946661</v>
+        <v>0.003245791420340538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007759563741274178</v>
+        <v>0.0008396035409532487</v>
       </c>
     </row>
     <row r="14">
@@ -642,6 +661,12 @@
       <c r="D14" t="n">
         <v>0.001285529346205294</v>
       </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
